--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H2">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J2">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>232.2511563162795</v>
+        <v>205.7670764985885</v>
       </c>
       <c r="R2">
-        <v>2090.260406846516</v>
+        <v>1851.903688487296</v>
       </c>
       <c r="S2">
-        <v>0.0171665018877096</v>
+        <v>0.01327312776326777</v>
       </c>
       <c r="T2">
-        <v>0.0171665018877096</v>
+        <v>0.01327312776326777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H3">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J3">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>765.0435276889701</v>
+        <v>1104.673943924537</v>
       </c>
       <c r="R3">
-        <v>6885.391749200731</v>
+        <v>9942.065495320832</v>
       </c>
       <c r="S3">
-        <v>0.05654706469735736</v>
+        <v>0.07125765036839533</v>
       </c>
       <c r="T3">
-        <v>0.05654706469735735</v>
+        <v>0.07125765036839533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H4">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J4">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>384.5773266059617</v>
+        <v>586.0602511116516</v>
       </c>
       <c r="R4">
-        <v>3461.195939453655</v>
+        <v>5274.542260004865</v>
       </c>
       <c r="S4">
-        <v>0.02842546624035386</v>
+        <v>0.03780416538129269</v>
       </c>
       <c r="T4">
-        <v>0.02842546624035386</v>
+        <v>0.03780416538129269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.12165933333333</v>
+        <v>21.83470933333334</v>
       </c>
       <c r="H5">
-        <v>45.36497799999999</v>
+        <v>65.50412800000001</v>
       </c>
       <c r="I5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="J5">
-        <v>0.1696222886509932</v>
+        <v>0.1994658397831471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>913.0027946286289</v>
+        <v>1195.724121420331</v>
       </c>
       <c r="R5">
-        <v>8217.025151657659</v>
+        <v>10761.51709278298</v>
       </c>
       <c r="S5">
-        <v>0.06748325582557239</v>
+        <v>0.07713089627019133</v>
       </c>
       <c r="T5">
-        <v>0.06748325582557238</v>
+        <v>0.07713089627019132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>30.93224</v>
       </c>
       <c r="H6">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J6">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>475.0833456230934</v>
+        <v>291.5008620992267</v>
       </c>
       <c r="R6">
-        <v>4275.750110607841</v>
+        <v>2623.50775889304</v>
       </c>
       <c r="S6">
-        <v>0.03511508523278153</v>
+        <v>0.01880343664100353</v>
       </c>
       <c r="T6">
-        <v>0.03511508523278153</v>
+        <v>0.01880343664100352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>30.93224</v>
       </c>
       <c r="H7">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J7">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>1564.941352484853</v>
@@ -883,10 +883,10 @@
         <v>14084.47217236368</v>
       </c>
       <c r="S7">
-        <v>0.1156703333911582</v>
+        <v>0.1009474735560769</v>
       </c>
       <c r="T7">
-        <v>0.1156703333911582</v>
+        <v>0.1009474735560769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>30.93224</v>
       </c>
       <c r="H8">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J8">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>786.6754502868266</v>
+        <v>830.2449125883733</v>
       </c>
       <c r="R8">
-        <v>7080.07905258144</v>
+        <v>7472.20421329536</v>
       </c>
       <c r="S8">
-        <v>0.05814595637135701</v>
+        <v>0.05355544233367262</v>
       </c>
       <c r="T8">
-        <v>0.05814595637135701</v>
+        <v>0.05355544233367262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>30.93224</v>
       </c>
       <c r="H9">
-        <v>92.79672000000001</v>
+        <v>92.79671999999999</v>
       </c>
       <c r="I9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="J9">
-        <v>0.3469723279862584</v>
+        <v>0.282574186529459</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>1867.600700530934</v>
+        <v>1693.92799935736</v>
       </c>
       <c r="R9">
-        <v>16808.4063047784</v>
+        <v>15245.35199421624</v>
       </c>
       <c r="S9">
-        <v>0.1380409529909617</v>
+        <v>0.109267833998706</v>
       </c>
       <c r="T9">
-        <v>0.1380409529909617</v>
+        <v>0.1092678339987059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H10">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J10">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>593.581659879691</v>
+        <v>449.5803526684822</v>
       </c>
       <c r="R10">
-        <v>5342.234938917219</v>
+        <v>4046.22317401634</v>
       </c>
       <c r="S10">
-        <v>0.04387371346801026</v>
+        <v>0.02900044828534404</v>
       </c>
       <c r="T10">
-        <v>0.04387371346801026</v>
+        <v>0.02900044828534404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H11">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J11">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>1955.27899300281</v>
+        <v>2413.601387278705</v>
       </c>
       <c r="R11">
-        <v>17597.51093702529</v>
+        <v>21722.41248550834</v>
       </c>
       <c r="S11">
-        <v>0.144521564743783</v>
+        <v>0.1556907943101886</v>
       </c>
       <c r="T11">
-        <v>0.1445215647437829</v>
+        <v>0.1556907943101886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H12">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J12">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>982.8930520715763</v>
+        <v>1280.482664492553</v>
       </c>
       <c r="R12">
-        <v>8846.037468644188</v>
+        <v>11524.34398043298</v>
       </c>
       <c r="S12">
-        <v>0.07264909118827353</v>
+        <v>0.08259829654806697</v>
       </c>
       <c r="T12">
-        <v>0.07264909118827353</v>
+        <v>0.08259829654806697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.64755633333333</v>
+        <v>47.70664233333334</v>
       </c>
       <c r="H13">
-        <v>115.942669</v>
+        <v>143.119927</v>
       </c>
       <c r="I13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="J13">
-        <v>0.4335163761808628</v>
+        <v>0.435812784634851</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>2333.429563521493</v>
+        <v>2612.536861338218</v>
       </c>
       <c r="R13">
-        <v>21000.86607169343</v>
+        <v>23512.83175204396</v>
       </c>
       <c r="S13">
-        <v>0.172472006780796</v>
+        <v>0.1685232454912514</v>
       </c>
       <c r="T13">
-        <v>0.172472006780796</v>
+        <v>0.1685232454912514</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H14">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I14">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J14">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>68.30929884046377</v>
+        <v>84.74226440123888</v>
       </c>
       <c r="R14">
-        <v>614.783689564174</v>
+        <v>762.68037961115</v>
       </c>
       <c r="S14">
-        <v>0.005048981137885277</v>
+        <v>0.005466350212513117</v>
       </c>
       <c r="T14">
-        <v>0.005048981137885277</v>
+        <v>0.005466350212513117</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H15">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I15">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J15">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>225.0132476744331</v>
+        <v>454.9443624614777</v>
       </c>
       <c r="R15">
-        <v>2025.119229069898</v>
+        <v>4094.4992621533</v>
       </c>
       <c r="S15">
-        <v>0.01663152253891306</v>
+        <v>0.02934645693025151</v>
       </c>
       <c r="T15">
-        <v>0.01663152253891306</v>
+        <v>0.02934645693025151</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H16">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I16">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J16">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>113.1112023167649</v>
+        <v>241.3606374735111</v>
       </c>
       <c r="R16">
-        <v>1018.000820850884</v>
+        <v>2172.2457372616</v>
       </c>
       <c r="S16">
-        <v>0.008360447796641355</v>
+        <v>0.01556911160290331</v>
       </c>
       <c r="T16">
-        <v>0.008360447796641355</v>
+        <v>0.01556911160290331</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.447555666666666</v>
+        <v>8.992316666666666</v>
       </c>
       <c r="H17">
-        <v>13.342667</v>
+        <v>26.97695</v>
       </c>
       <c r="I17">
-        <v>0.04988900718188559</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="J17">
-        <v>0.04988900718188558</v>
+        <v>0.08214718905254291</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>268.5307652700544</v>
+        <v>492.4420921586832</v>
       </c>
       <c r="R17">
-        <v>2416.77688743049</v>
+        <v>4431.97882942815</v>
       </c>
       <c r="S17">
-        <v>0.0198480557084459</v>
+        <v>0.03176527030687497</v>
       </c>
       <c r="T17">
-        <v>0.0198480557084459</v>
+        <v>0.03176527030687497</v>
       </c>
     </row>
   </sheetData>
